--- a/ALG/Prácticas/P6/p6.xlsx
+++ b/ALG/Prácticas/P6/p6.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabig\Desktop\repos\ALG\Prácticas\P6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{392823C5-840E-401A-8F5D-A69E1FFCFFA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C73B3273-8FA4-4966-8C0E-58D60A22E80E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{EC7C2162-97B6-43C1-A202-6A0A131EA0F3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>MD5</t>
   </si>
@@ -65,52 +65,16 @@
     <t>813f934c4d7bc9cc438e4ab35407f6fe</t>
   </si>
   <si>
+    <t>Tiempo(ms)</t>
+  </si>
+  <si>
     <t>QUINCE</t>
   </si>
   <si>
-    <t>Tiempo(s)</t>
+    <t>n</t>
   </si>
   <si>
-    <t>a6d344e3c69952c4c170e70dc6141dc6</t>
-  </si>
-  <si>
-    <t>4bb7e7882d24c32b66cc6a92e05507e9</t>
-  </si>
-  <si>
-    <t>a16ffe305203e493cb40f40f7389ff9e</t>
-  </si>
-  <si>
-    <t>05e61090b2126d24ad821d05044ec1f2</t>
-  </si>
-  <si>
-    <t>ce76bad2535f43a6bbbad042c8f6fc55</t>
-  </si>
-  <si>
-    <t>01289be966e79166b6c217e0a5fb628c</t>
-  </si>
-  <si>
-    <t>dacbde169f9d80cba4bb5a48b3f01a97</t>
-  </si>
-  <si>
-    <t>3a2c0d35fa4f2bbb8fed05fba9e92bff</t>
-  </si>
-  <si>
-    <t>033d6fbe140d882ea9825d3c992678d7</t>
-  </si>
-  <si>
-    <t>589abbcd16f7726096c84e43d5288581</t>
-  </si>
-  <si>
-    <t>f2f0c441c29b613114846f2b684a3f64</t>
-  </si>
-  <si>
-    <t>DIECISEIS</t>
-  </si>
-  <si>
-    <t>VEINTITRES</t>
-  </si>
-  <si>
-    <t>TREINTAYTRES</t>
+    <t>&gt;20 min</t>
   </si>
 </sst>
 </file>
@@ -173,6 +137,916 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja1!$D$11:$D$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$E$11:$E$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1215</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16755</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>419089</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-529E-4CB5-A21C-07E7A6452224}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="555829088"/>
+        <c:axId val="555826568"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="555829088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="555826568"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="555826568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="555829088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF9CBEE2-CD59-0A2F-2F34-CF5E2EFD25E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -472,10 +1346,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15B6BBA8-BC60-4831-9E9C-9FA6862BE847}">
-  <dimension ref="B1:D16"/>
+  <dimension ref="B1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -484,7 +1358,7 @@
     <col min="3" max="3" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -492,110 +1366,119 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
       </c>
+      <c r="D2">
+        <v>252</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
       </c>
+      <c r="D3">
+        <v>1215</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>7</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
       </c>
+      <c r="D4">
+        <v>16755</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>8</v>
       </c>
       <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>419089</v>
+      </c>
+      <c r="E5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="2"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D5">
-        <v>582.47900000000004</v>
-      </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11">
+        <v>252</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="E12">
+        <v>1215</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <v>5</v>
+      </c>
+      <c r="E13">
+        <v>16755</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>21</v>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <v>6</v>
+      </c>
+      <c r="E14">
+        <v>419089</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/ALG/Prácticas/P6/p6.xlsx
+++ b/ALG/Prácticas/P6/p6.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabig\Desktop\repos\ALG\Prácticas\P6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C73B3273-8FA4-4966-8C0E-58D60A22E80E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BDF9C4E-A9A3-4FC0-B06B-CADDA7257485}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{EC7C2162-97B6-43C1-A202-6A0A131EA0F3}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Herencia" sheetId="1" r:id="rId1"/>
+    <sheet name="Viajante" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t>MD5</t>
   </si>
@@ -75,6 +76,9 @@
   </si>
   <si>
     <t>&gt;20 min</t>
+  </si>
+  <si>
+    <t>t</t>
   </si>
 </sst>
 </file>
@@ -154,6 +158,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t>Herencia</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -218,7 +247,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Hoja1!$D$11:$D$14</c:f>
+              <c:f>Herencia!$D$11:$D$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -239,7 +268,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Hoja1!$E$11:$E$14</c:f>
+              <c:f>Herencia!$E$11:$E$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -297,6 +326,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>n</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -359,6 +443,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>t</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -397,6 +536,466 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="555829088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t>Viajante</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Viajante!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Viajante!$B$2:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>464</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3722</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43686</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>770386</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0CE4-4CE3-9A58-9D24B0583D3E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="587930232"/>
+        <c:axId val="587932752"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="587930232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>n</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="587932752"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="587932752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>t (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="587930232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -492,7 +1091,563 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1029,6 +2184,47 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF9CBEE2-CD59-0A2F-2F34-CF5E2EFD25E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E409750-AF16-A305-DF9E-DE994AE5936C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1349,7 +2545,7 @@
   <dimension ref="B1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B1" sqref="B1:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1481,4 +2677,94 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CB09F2F-FED8-489D-8841-17BA0A36A4EF}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>82</v>
+      </c>
+      <c r="C2">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>96</v>
+      </c>
+      <c r="C3">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>464</v>
+      </c>
+      <c r="C4">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>3722</v>
+      </c>
+      <c r="C5">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>43686</v>
+      </c>
+      <c r="C6">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>770386</v>
+      </c>
+      <c r="C7">
+        <v>372</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>